--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBFC933-22A3-4E53-A874-7BFFB1F521D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF06635-F87D-4B64-9557-F19DFFF2D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280"/>
+    <workbookView xWindow="3675" yWindow="3075" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,12 +38,24 @@
   </si>
   <si>
     <t>234r</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>chk1</t>
+  </si>
+  <si>
+    <t>chk22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,16 +399,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -421,7 +435,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF06635-F87D-4B64-9557-F19DFFF2D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2FB1E-A5F6-49CE-8FFB-204572A1779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3075" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>chk22</t>
+  </si>
+  <si>
+    <t>AlertMessage</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:C4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,9 +417,10 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +430,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -434,8 +444,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -445,8 +458,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -455,6 +471,9 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2FB1E-A5F6-49CE-8FFB-204572A1779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E760A39-B229-4B39-8B28-85B1E2700624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E760A39-B229-4B39-8B28-85B1E2700624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE9C12-D2E6-4F63-8C7C-31DA55AD7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccount" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -40,22 +50,64 @@
     <t>234r</t>
   </si>
   <si>
+    <t>AlertMessage</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinda </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Bismi</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>1w2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>chk</t>
-  </si>
-  <si>
-    <t>chk1</t>
-  </si>
-  <si>
-    <t>chk22</t>
-  </si>
-  <si>
-    <t>AlertMessage</t>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>jira</t>
   </si>
 </sst>
 </file>
@@ -406,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,39 +497,184 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2222</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA14432-0115-4F14-BDA1-9DCA829CF56A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>AddCustomerTest!A2:B2</f>
+        <v>Neethu</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>AddCustomerTest!A3:B3</f>
+        <v xml:space="preserve">Clinda </v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>AddCustomerTest!A4:B4</f>
+        <v>Bismi</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>AddCustomerTest!A5:B5</f>
+        <v>jira</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>AddCustomerTest!A6:B6</f>
+        <v>Test</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>AddCustomerTest!A7:B7</f>
+        <v>test</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE9C12-D2E6-4F63-8C7C-31DA55AD7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C166113-ECF1-4E85-A56A-8A5236424579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>jira</t>
+  </si>
+  <si>
+    <t>qw22</t>
+  </si>
+  <si>
+    <t>22q2</t>
+  </si>
+  <si>
+    <t>2wer</t>
+  </si>
+  <si>
+    <t>rew3</t>
   </si>
 </sst>
 </file>
@@ -142,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -460,113 +473,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>2222</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -580,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA14432-0115-4F14-BDA1-9DCA829CF56A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C166113-ECF1-4E85-A56A-8A5236424579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB494B2-608A-4083-BAA2-204DEA564A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="Deletecustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -77,49 +78,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Bismi</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>1w2</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
-  <si>
-    <t>jira</t>
-  </si>
-  <si>
     <t>qw22</t>
-  </si>
-  <si>
-    <t>22q2</t>
-  </si>
-  <si>
-    <t>2wer</t>
-  </si>
-  <si>
-    <t>rew3</t>
   </si>
 </sst>
 </file>
@@ -471,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,65 +480,9 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -591,10 +494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA14432-0115-4F14-BDA1-9DCA829CF56A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,68 +529,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>AddCustomerTest!A3:B3</f>
-        <v xml:space="preserve">Clinda </v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>AddCustomerTest!A4:B4</f>
-        <v>Bismi</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>AddCustomerTest!A5:B5</f>
-        <v>jira</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>AddCustomerTest!A6:B6</f>
-        <v>Test</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>AddCustomerTest!A7:B7</f>
-        <v>test</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571010ED-F99B-459A-B845-B762DC68358A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB494B2-608A-4083-BAA2-204DEA564A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6B06F-D8F1-4F1D-A97D-F5835D20A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAccount" sheetId="2" r:id="rId2"/>
     <sheet name="Deletecustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="customerLoginpageverification" sheetId="4" r:id="rId4"/>
+    <sheet name="loginAsCustomer" sheetId="5" r:id="rId5"/>
+    <sheet name="customerLoginHomePageVerificat" sheetId="6" r:id="rId6"/>
+    <sheet name="Transactionverification" sheetId="7" r:id="rId7"/>
+    <sheet name="DepositAmount" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -79,18 +84,49 @@
   </si>
   <si>
     <t>qw22</t>
+  </si>
+  <si>
+    <t>Rupees</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>XYZ Bank</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>AmountTobeDeposited</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -494,7 +533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA14432-0115-4F14-BDA1-9DCA829CF56A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -529,6 +568,18 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>AddCustomerTest!A3</f>
+        <v xml:space="preserve">Clinda </v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -539,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571010ED-F99B-459A-B845-B762DC68358A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -558,4 +609,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33BA0D-FA2D-4B9F-A617-43B8C8E9F2FE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF4314-A77E-4FC7-A1EF-553325DA84C0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C9CE9-51CE-4079-B6C3-B2BE2A81BC2B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9F52A-E673-4928-B988-4C6B40052781}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCFCE2-557D-40C6-83C5-C7EFAF0D59F0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/resources/excel/TestData.xlsx
+++ b/src/test/java/resources/excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeth\Documents\GitHub\Repo\DataDrivenFramwork\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6B06F-D8F1-4F1D-A97D-F5835D20A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5E9622-D8E0-4F05-83A2-6B05A1D61AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -86,9 +86,6 @@
     <t>qw22</t>
   </si>
   <si>
-    <t>Rupees</t>
-  </si>
-  <si>
     <t>BankName</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Neethu Nair</t>
+  </si>
+  <si>
+    <t>Clinda T</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA14432-0115-4F14-BDA1-9DCA829CF56A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +563,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>AddCustomerTest!A2:B2</f>
-        <v>Neethu</v>
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -569,12 +574,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>AddCustomerTest!A3</f>
-        <v xml:space="preserve">Clinda </v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -626,12 +630,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -655,12 +659,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -685,12 +689,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -718,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCFCE2-557D-40C6-83C5-C7EFAF0D59F0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -730,18 +734,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
